--- a/transactions_copy_test.xlsx
+++ b/transactions_copy_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bence/Documents/Codecool/CodecoolTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D40B8175-EF30-C84E-9783-CFC402AFE6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675B8BB7-008B-024B-848A-8B0A918DF8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-13020" yWindow="-28300" windowWidth="51200" windowHeight="28300" xr2:uid="{B01E49AF-F25F-AB48-A715-F2012D8DD627}"/>
+    <workbookView xWindow="-5120" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{B01E49AF-F25F-AB48-A715-F2012D8DD627}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="149">
   <si>
     <t>Sub-category</t>
   </si>
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>Other</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -531,7 +534,7 @@
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -566,6 +569,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8EA9DB"/>
         <bgColor rgb="FFB0B3B2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFD4D4D4"/>
       </patternFill>
     </fill>
   </fills>
@@ -694,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -733,6 +742,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1051,7 +1063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98346C7F-349C-E74F-B47E-FEF954E8774B}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J40" sqref="J40"/>
     </sheetView>
   </sheetViews>
@@ -1065,8 +1077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7776ECC3-A978-8448-9213-7F09B56B6A76}">
   <dimension ref="A1:H364"/>
   <sheetViews>
-    <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="K24" sqref="K24"/>
+    <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1101,8 +1113,8 @@
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="11" t="s">
-        <v>34</v>
+      <c r="A2" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="B2" s="12">
         <v>45107.583402777775</v>
@@ -1130,8 +1142,8 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" s="11" t="s">
-        <v>34</v>
+      <c r="A3" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="B3" s="12">
         <v>45108.590254629627</v>
@@ -1159,8 +1171,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" s="11" t="s">
-        <v>34</v>
+      <c r="A4" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="B4" s="12">
         <v>45108.644386574073</v>
@@ -1188,8 +1200,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" s="11" t="s">
-        <v>34</v>
+      <c r="A5" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="B5" s="12">
         <v>45108.91741898148</v>
@@ -1217,8 +1229,8 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="11" t="s">
-        <v>34</v>
+      <c r="A6" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="B6" s="12">
         <v>45108.99895833333</v>
@@ -1246,8 +1258,8 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="11" t="s">
-        <v>34</v>
+      <c r="A7" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="B7" s="12">
         <v>45109.849386574075</v>
@@ -1275,8 +1287,8 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="11" t="s">
-        <v>34</v>
+      <c r="A8" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="B8" s="12">
         <v>45110.716666666667</v>
@@ -1304,8 +1316,8 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="11" t="s">
-        <v>34</v>
+      <c r="A9" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="B9" s="12">
         <v>45112.240127314813</v>
@@ -1333,8 +1345,8 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="11" t="s">
-        <v>34</v>
+      <c r="A10" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="B10" s="12">
         <v>45111.80159722222</v>
@@ -1362,8 +1374,8 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="11" t="s">
-        <v>34</v>
+      <c r="A11" s="20" t="s">
+        <v>148</v>
       </c>
       <c r="B11" s="12">
         <v>45111.790937500002</v>

--- a/transactions_copy_test.xlsx
+++ b/transactions_copy_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bence/Documents/Codecool/CodecoolTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Desktop/CodecoolTest/CodecoolTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{675B8BB7-008B-024B-848A-8B0A918DF8C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27E406E-4C3E-0E49-8D5E-374A4F01DEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5120" yWindow="-21100" windowWidth="38400" windowHeight="21100" activeTab="1" xr2:uid="{B01E49AF-F25F-AB48-A715-F2012D8DD627}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="1" xr2:uid="{B01E49AF-F25F-AB48-A715-F2012D8DD627}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
@@ -534,7 +534,7 @@
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -574,6 +574,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFD4D4D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFD4D4D4"/>
       </patternFill>
     </fill>
@@ -703,7 +709,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -745,6 +751,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1078,7 +1087,7 @@
   <dimension ref="A1:H364"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1403,7 +1412,7 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B12" s="12">
@@ -1432,7 +1441,7 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B13" s="12">
@@ -1461,7 +1470,7 @@
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B14" s="12">
@@ -1490,7 +1499,7 @@
       </c>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B15" s="12">
@@ -1519,7 +1528,7 @@
       </c>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B16" s="12">
@@ -1548,7 +1557,7 @@
       </c>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="12">
@@ -1577,7 +1586,7 @@
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="12">
@@ -1606,7 +1615,7 @@
       </c>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="12">
@@ -1635,7 +1644,7 @@
       </c>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="12">
@@ -1664,7 +1673,7 @@
       </c>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B21" s="12">
@@ -1693,7 +1702,7 @@
       </c>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B22" s="12">
@@ -1722,7 +1731,7 @@
       </c>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="12">
@@ -1751,7 +1760,7 @@
       </c>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B24" s="12">
@@ -1780,7 +1789,7 @@
       </c>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B25" s="12">
@@ -1809,7 +1818,7 @@
       </c>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B26" s="12">
@@ -1838,7 +1847,7 @@
       </c>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B27" s="12">
@@ -1867,7 +1876,7 @@
       </c>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="21" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="12">

--- a/transactions_copy_test.xlsx
+++ b/transactions_copy_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Desktop/CodecoolTest/CodecoolTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bence/Documents/Codecool/CodecoolTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E27E406E-4C3E-0E49-8D5E-374A4F01DEAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83229173-06E1-A544-BF1F-23EE81FD707F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" activeTab="1" xr2:uid="{B01E49AF-F25F-AB48-A715-F2012D8DD627}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="36000" windowHeight="17500" activeTab="1" xr2:uid="{B01E49AF-F25F-AB48-A715-F2012D8DD627}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
@@ -534,7 +534,7 @@
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -581,6 +581,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFD4D4D4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -709,7 +715,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -754,6 +760,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1087,7 +1096,7 @@
   <dimension ref="A1:H364"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="B2" sqref="B2:B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1125,7 +1134,7 @@
       <c r="A2" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B2" s="12">
+      <c r="B2" s="22">
         <v>45107.583402777775</v>
       </c>
       <c r="C2" s="13" t="s">
@@ -1154,7 +1163,7 @@
       <c r="A3" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="22">
         <v>45108.590254629627</v>
       </c>
       <c r="C3" s="15" t="s">
@@ -1183,7 +1192,7 @@
       <c r="A4" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="22">
         <v>45108.644386574073</v>
       </c>
       <c r="C4" s="15" t="s">
@@ -1212,7 +1221,7 @@
       <c r="A5" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="22">
         <v>45108.91741898148</v>
       </c>
       <c r="C5" s="15" t="s">
@@ -1241,7 +1250,7 @@
       <c r="A6" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="22">
         <v>45108.99895833333</v>
       </c>
       <c r="C6" s="15" t="s">
@@ -1270,7 +1279,7 @@
       <c r="A7" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="22">
         <v>45109.849386574075</v>
       </c>
       <c r="C7" s="15" t="s">
@@ -1299,7 +1308,7 @@
       <c r="A8" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="22">
         <v>45110.716666666667</v>
       </c>
       <c r="C8" s="15" t="s">
@@ -1328,7 +1337,7 @@
       <c r="A9" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="22">
         <v>45112.240127314813</v>
       </c>
       <c r="C9" s="15" t="s">
@@ -1357,7 +1366,7 @@
       <c r="A10" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="22">
         <v>45111.80159722222</v>
       </c>
       <c r="C10" s="15" t="s">
@@ -1386,7 +1395,7 @@
       <c r="A11" s="20" t="s">
         <v>148</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="22">
         <v>45111.790937500002</v>
       </c>
       <c r="C11" s="15" t="s">

--- a/transactions_copy_test.xlsx
+++ b/transactions_copy_test.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bence/Documents/Codecool/CodecoolTest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Desktop/CodecoolTest/CodecoolTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83229173-06E1-A544-BF1F-23EE81FD707F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89813993-8AF0-044A-9449-BD0CF4933B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="36000" windowHeight="17500" activeTab="1" xr2:uid="{B01E49AF-F25F-AB48-A715-F2012D8DD627}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" activeTab="1" xr2:uid="{B01E49AF-F25F-AB48-A715-F2012D8DD627}"/>
   </bookViews>
   <sheets>
     <sheet name="Dashboard" sheetId="2" r:id="rId1"/>
@@ -534,7 +534,7 @@
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -586,6 +586,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -715,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -763,6 +769,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="4" fillId="9" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1096,7 +1105,7 @@
   <dimension ref="A1:H364"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1140,7 +1149,7 @@
       <c r="C2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="14">
+      <c r="D2" s="23">
         <v>3414.78</v>
       </c>
       <c r="E2" s="15" t="s">
@@ -1169,7 +1178,7 @@
       <c r="C3" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="14">
+      <c r="D3" s="23">
         <v>1400</v>
       </c>
       <c r="E3" s="15" t="s">
@@ -1198,7 +1207,7 @@
       <c r="C4" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D4" s="14">
+      <c r="D4" s="23">
         <v>1400</v>
       </c>
       <c r="E4" s="15" t="s">
@@ -1227,7 +1236,7 @@
       <c r="C5" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="23">
         <v>4780</v>
       </c>
       <c r="E5" s="15" t="s">
@@ -1256,7 +1265,7 @@
       <c r="C6" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="23">
         <v>4960</v>
       </c>
       <c r="E6" s="15" t="s">
@@ -1285,7 +1294,7 @@
       <c r="C7" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="23">
         <v>5763</v>
       </c>
       <c r="E7" s="15" t="s">
@@ -1314,7 +1323,7 @@
       <c r="C8" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D8" s="14">
+      <c r="D8" s="23">
         <v>7152</v>
       </c>
       <c r="E8" s="15" t="s">
@@ -1343,7 +1352,7 @@
       <c r="C9" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="D9" s="14">
+      <c r="D9" s="23">
         <v>4490</v>
       </c>
       <c r="E9" s="15" t="s">
@@ -1372,7 +1381,7 @@
       <c r="C10" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="23">
         <v>7200</v>
       </c>
       <c r="E10" s="15" t="s">
@@ -1401,7 +1410,7 @@
       <c r="C11" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="23">
         <v>2300</v>
       </c>
       <c r="E11" s="15" t="s">

--- a/transactions_copy_test.xlsx
+++ b/transactions_copy_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Desktop/CodecoolTest/CodecoolTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89813993-8AF0-044A-9449-BD0CF4933B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A34FAD2-9DD6-5846-8207-D53410EB7B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" activeTab="1" xr2:uid="{B01E49AF-F25F-AB48-A715-F2012D8DD627}"/>
   </bookViews>
@@ -721,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -772,6 +772,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1105,7 +1108,7 @@
   <dimension ref="A1:H364"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1155,7 +1158,7 @@
       <c r="E2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="16" t="str">
+      <c r="F2" s="24" t="str">
         <f>VLOOKUP(C2,LOOK_UP_TABLE!A:D,2,FALSE)</f>
         <v>Subscriptions</v>
       </c>
@@ -1184,7 +1187,7 @@
       <c r="E3" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="16" t="str">
+      <c r="F3" s="24" t="str">
         <f>VLOOKUP(C3,LOOK_UP_TABLE!A:D,2,FALSE)</f>
         <v>BKK</v>
       </c>
@@ -1213,7 +1216,7 @@
       <c r="E4" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="16" t="str">
+      <c r="F4" s="24" t="str">
         <f>VLOOKUP(C4,LOOK_UP_TABLE!A:D,2,FALSE)</f>
         <v>BKK</v>
       </c>
@@ -1242,7 +1245,7 @@
       <c r="E5" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="16" t="str">
+      <c r="F5" s="24" t="str">
         <f>VLOOKUP(C5,LOOK_UP_TABLE!A:D,2,FALSE)</f>
         <v>Entertainment</v>
       </c>
@@ -1271,7 +1274,7 @@
       <c r="E6" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="16" t="str">
+      <c r="F6" s="24" t="str">
         <f>VLOOKUP(C6,LOOK_UP_TABLE!A:D,2,FALSE)</f>
         <v>Restaurant</v>
       </c>
@@ -1300,7 +1303,7 @@
       <c r="E7" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F7" s="16" t="str">
+      <c r="F7" s="24" t="str">
         <f>VLOOKUP(C7,LOOK_UP_TABLE!A:D,2,FALSE)</f>
         <v>Restaurant</v>
       </c>
@@ -1329,7 +1332,7 @@
       <c r="E8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="16" t="str">
+      <c r="F8" s="24" t="str">
         <f>VLOOKUP(C8,LOOK_UP_TABLE!A:D,2,FALSE)</f>
         <v>Groceries</v>
       </c>
@@ -1358,7 +1361,7 @@
       <c r="E9" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F9" s="16" t="str">
+      <c r="F9" s="24" t="str">
         <f>VLOOKUP(C9,LOOK_UP_TABLE!A:D,2,FALSE)</f>
         <v>Subscriptions</v>
       </c>
@@ -1387,7 +1390,7 @@
       <c r="E10" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F10" s="16" t="str">
+      <c r="F10" s="24" t="str">
         <f>VLOOKUP(C10,LOOK_UP_TABLE!A:D,2,FALSE)</f>
         <v>Restaurant</v>
       </c>
@@ -1416,7 +1419,7 @@
       <c r="E11" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F11" s="16" t="str">
+      <c r="F11" s="24" t="str">
         <f>VLOOKUP(C11,LOOK_UP_TABLE!A:D,2,FALSE)</f>
         <v>Restaurant</v>
       </c>
@@ -1445,7 +1448,7 @@
       <c r="E12" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F12" s="16" t="str">
+      <c r="F12" s="24" t="str">
         <f>VLOOKUP(C12,LOOK_UP_TABLE!A:D,2,FALSE)</f>
         <v>MV Fuel</v>
       </c>
@@ -1474,7 +1477,7 @@
       <c r="E13" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="16" t="str">
+      <c r="F13" s="24" t="str">
         <f>VLOOKUP(C13,LOOK_UP_TABLE!A:D,2,FALSE)</f>
         <v>MV Fuel</v>
       </c>
@@ -1503,7 +1506,7 @@
       <c r="E14" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F14" s="16" t="str">
+      <c r="F14" s="24" t="str">
         <f>VLOOKUP(C14,LOOK_UP_TABLE!A:D,2,FALSE)</f>
         <v>Entertainment</v>
       </c>

--- a/transactions_copy_test.xlsx
+++ b/transactions_copy_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Desktop/CodecoolTest/CodecoolTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A34FAD2-9DD6-5846-8207-D53410EB7B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FC1A7B4-88CE-B04F-B92B-88908050FBBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" activeTab="1" xr2:uid="{B01E49AF-F25F-AB48-A715-F2012D8DD627}"/>
   </bookViews>
@@ -534,7 +534,7 @@
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -592,6 +592,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -775,6 +781,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1108,7 +1117,7 @@
   <dimension ref="A1:H364"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1439,7 +1448,7 @@
       <c r="B12" s="12">
         <v>45111.814780092594</v>
       </c>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="25" t="s">
         <v>45</v>
       </c>
       <c r="D12" s="14">
@@ -1468,7 +1477,7 @@
       <c r="B13" s="12">
         <v>45112.176921296297</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="25" t="s">
         <v>45</v>
       </c>
       <c r="D13" s="14">
@@ -1497,7 +1506,7 @@
       <c r="B14" s="12">
         <v>45114.806562500002</v>
       </c>
-      <c r="C14" s="15" t="s">
+      <c r="C14" s="25" t="s">
         <v>46</v>
       </c>
       <c r="D14" s="14">
@@ -1526,7 +1535,7 @@
       <c r="B15" s="12">
         <v>45114.876851851855</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="C15" s="25" t="s">
         <v>46</v>
       </c>
       <c r="D15" s="14">
@@ -1555,7 +1564,7 @@
       <c r="B16" s="12">
         <v>45114.874907407408</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="25" t="s">
         <v>46</v>
       </c>
       <c r="D16" s="14">
@@ -1584,7 +1593,7 @@
       <c r="B17" s="12">
         <v>45114.886238425926</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="C17" s="25" t="s">
         <v>46</v>
       </c>
       <c r="D17" s="14">
@@ -1613,7 +1622,7 @@
       <c r="B18" s="12">
         <v>45114.847083333334</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="25" t="s">
         <v>46</v>
       </c>
       <c r="D18" s="14">
@@ -1642,7 +1651,7 @@
       <c r="B19" s="12">
         <v>45114.818414351852</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="25" t="s">
         <v>46</v>
       </c>
       <c r="D19" s="14">
@@ -1671,7 +1680,7 @@
       <c r="B20" s="12">
         <v>45114.978113425925</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="C20" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D20" s="14">
@@ -1700,7 +1709,7 @@
       <c r="B21" s="12">
         <v>45115.339918981481</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="25" t="s">
         <v>47</v>
       </c>
       <c r="D21" s="14">

--- a/transactions_copy_test.xlsx
+++ b/transactions_copy_test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sky/Desktop/CodecoolTest/CodecoolTest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A34FAD2-9DD6-5846-8207-D53410EB7B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AB2D07-7B68-9C48-81BA-390205D60115}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17500" activeTab="1" xr2:uid="{B01E49AF-F25F-AB48-A715-F2012D8DD627}"/>
   </bookViews>
@@ -534,7 +534,7 @@
       <name val="&quot;Helvetica Neue&quot;"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -592,6 +592,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -721,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -775,6 +781,9 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
@@ -1108,7 +1117,7 @@
   <dimension ref="A1:H364"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1253,7 +1262,7 @@
         <f>VLOOKUP(C5,LOOK_UP_TABLE!A:D,3,FALSE)</f>
         <v>Discretionary</v>
       </c>
-      <c r="H5" s="16" t="str">
+      <c r="H5" s="25" t="str">
         <f>VLOOKUP(C5,LOOK_UP_TABLE!A:D,4,FALSE)</f>
         <v>Expense</v>
       </c>
@@ -1282,7 +1291,7 @@
         <f>VLOOKUP(C6,LOOK_UP_TABLE!A:D,3,FALSE)</f>
         <v>Dining Out</v>
       </c>
-      <c r="H6" s="16" t="str">
+      <c r="H6" s="25" t="str">
         <f>VLOOKUP(C6,LOOK_UP_TABLE!A:D,4,FALSE)</f>
         <v>Expense</v>
       </c>
@@ -1311,7 +1320,7 @@
         <f>VLOOKUP(C7,LOOK_UP_TABLE!A:D,3,FALSE)</f>
         <v>Dining Out</v>
       </c>
-      <c r="H7" s="16" t="str">
+      <c r="H7" s="25" t="str">
         <f>VLOOKUP(C7,LOOK_UP_TABLE!A:D,4,FALSE)</f>
         <v>Expense</v>
       </c>
@@ -1340,7 +1349,7 @@
         <f>VLOOKUP(C8,LOOK_UP_TABLE!A:D,3,FALSE)</f>
         <v>Living Expenses</v>
       </c>
-      <c r="H8" s="16" t="str">
+      <c r="H8" s="25" t="str">
         <f>VLOOKUP(C8,LOOK_UP_TABLE!A:D,4,FALSE)</f>
         <v>Expense</v>
       </c>
@@ -1369,7 +1378,7 @@
         <f>VLOOKUP(C9,LOOK_UP_TABLE!A:D,3,FALSE)</f>
         <v>Subscriptions</v>
       </c>
-      <c r="H9" s="16" t="str">
+      <c r="H9" s="25" t="str">
         <f>VLOOKUP(C9,LOOK_UP_TABLE!A:D,4,FALSE)</f>
         <v>Expense</v>
       </c>
@@ -1398,7 +1407,7 @@
         <f>VLOOKUP(C10,LOOK_UP_TABLE!A:D,3,FALSE)</f>
         <v>Dining Out</v>
       </c>
-      <c r="H10" s="16" t="str">
+      <c r="H10" s="25" t="str">
         <f>VLOOKUP(C10,LOOK_UP_TABLE!A:D,4,FALSE)</f>
         <v>Expense</v>
       </c>
@@ -1427,7 +1436,7 @@
         <f>VLOOKUP(C11,LOOK_UP_TABLE!A:D,3,FALSE)</f>
         <v>Dining Out</v>
       </c>
-      <c r="H11" s="16" t="str">
+      <c r="H11" s="25" t="str">
         <f>VLOOKUP(C11,LOOK_UP_TABLE!A:D,4,FALSE)</f>
         <v>Expense</v>
       </c>
@@ -1456,7 +1465,7 @@
         <f>VLOOKUP(C12,LOOK_UP_TABLE!A:D,3,FALSE)</f>
         <v>Transport</v>
       </c>
-      <c r="H12" s="16" t="str">
+      <c r="H12" s="25" t="str">
         <f>VLOOKUP(C12,LOOK_UP_TABLE!A:D,4,FALSE)</f>
         <v>Expense</v>
       </c>
@@ -1485,7 +1494,7 @@
         <f>VLOOKUP(C13,LOOK_UP_TABLE!A:D,3,FALSE)</f>
         <v>Transport</v>
       </c>
-      <c r="H13" s="16" t="str">
+      <c r="H13" s="25" t="str">
         <f>VLOOKUP(C13,LOOK_UP_TABLE!A:D,4,FALSE)</f>
         <v>Expense</v>
       </c>
@@ -1514,7 +1523,7 @@
         <f>VLOOKUP(C14,LOOK_UP_TABLE!A:D,3,FALSE)</f>
         <v>Discretionary</v>
       </c>
-      <c r="H14" s="16" t="str">
+      <c r="H14" s="25" t="str">
         <f>VLOOKUP(C14,LOOK_UP_TABLE!A:D,4,FALSE)</f>
         <v>Expense</v>
       </c>
@@ -1543,7 +1552,7 @@
         <f>VLOOKUP(C15,LOOK_UP_TABLE!A:D,3,FALSE)</f>
         <v>Discretionary</v>
       </c>
-      <c r="H15" s="16" t="str">
+      <c r="H15" s="25" t="str">
         <f>VLOOKUP(C15,LOOK_UP_TABLE!A:D,4,FALSE)</f>
         <v>Expense</v>
       </c>
@@ -1572,7 +1581,7 @@
         <f>VLOOKUP(C16,LOOK_UP_TABLE!A:D,3,FALSE)</f>
         <v>Discretionary</v>
       </c>
-      <c r="H16" s="16" t="str">
+      <c r="H16" s="25" t="str">
         <f>VLOOKUP(C16,LOOK_UP_TABLE!A:D,4,FALSE)</f>
         <v>Expense</v>
       </c>
@@ -1601,7 +1610,7 @@
         <f>VLOOKUP(C17,LOOK_UP_TABLE!A:D,3,FALSE)</f>
         <v>Discretionary</v>
       </c>
-      <c r="H17" s="16" t="str">
+      <c r="H17" s="25" t="str">
         <f>VLOOKUP(C17,LOOK_UP_TABLE!A:D,4,FALSE)</f>
         <v>Expense</v>
       </c>
